--- a/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>newloan</t>
   </si>
@@ -39,9 +34,6 @@
   </si>
   <si>
     <t>approveddate</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>save</t>
@@ -224,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,6 +234,11 @@
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -284,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -335,6 +332,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,26 +428,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,23 +463,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -698,12 +664,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -719,7 +685,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>10000</v>
@@ -727,15 +693,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
@@ -743,7 +709,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8">
         <v>10000</v>
@@ -751,15 +717,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -775,23 +741,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>42005</v>
@@ -799,10 +765,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -827,23 +793,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="18">
         <v>5000</v>
@@ -851,10 +817,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -880,22 +846,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -986,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -995,55 +961,53 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
+      <c r="Q1" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1104,15 +1068,15 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="10">
-        <v>101.92</v>
+      <c r="K3" s="6">
+        <v>887.72</v>
       </c>
       <c r="L3" s="5">
         <v>10000</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="6">
-        <v>10000</v>
+      <c r="N3" s="10">
+        <v>9214.2000000000007</v>
       </c>
       <c r="O3" s="6">
         <v>0</v>
@@ -1133,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1145,34 +1109,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1180,13 +1144,13 @@
         <v>1051</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="13">
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="12">
         <v>101.92</v>
@@ -1204,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="14">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -1214,13 +1178,13 @@
         <v>1052</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13">
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="14">
         <v>10000</v>
@@ -1248,13 +1212,13 @@
         <v>1040</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="13">
         <v>42005</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="14">
         <v>10000</v>
@@ -1295,15 +1259,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="19">
         <v>42036</v>
@@ -1311,7 +1275,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="16">
         <v>5000</v>
@@ -1319,7 +1283,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="20">
         <v>10000</v>
@@ -1327,10 +1291,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
